--- a/tutorial/export_excel/template/elevator/congifuration.xlsx
+++ b/tutorial/export_excel/template/elevator/congifuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Library/Mobile Documents/com~apple~CloudDocs/04Project/ElevatorCertificate/ElevatorCertificate/tutorial/export_excel/template/elevator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B287E783-0693-E444-872C-08B76F9D3E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B72DBBD-08E8-6048-8594-0541C2375B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39760" yWindow="2280" windowWidth="27440" windowHeight="16440" xr2:uid="{11968644-D89F-F249-AA04-204BF93D5EF5}"/>
+    <workbookView xWindow="42460" yWindow="5860" windowWidth="27440" windowHeight="16440" xr2:uid="{11968644-D89F-F249-AA04-204BF93D5EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,25 +474,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -519,11 +510,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C802AAB7-9785-6C49-AF4D-312EFEB4DBDC}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -911,9 +911,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" customHeight="1">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -922,18 +922,18 @@
     <row r="2" spans="1:7" ht="40" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -956,7 +956,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="41"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="41"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="41"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="41"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1000,7 +1000,7 @@
       <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="41"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="41"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="41"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="34">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1046,7 +1046,7 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="17">
-      <c r="A12" s="38"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="38"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1068,8 +1068,8 @@
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="38"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="29"/>
@@ -1079,8 +1079,8 @@
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="38"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -1088,8 +1088,8 @@
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="38"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="29"/>
@@ -1099,8 +1099,8 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="38"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -1108,7 +1108,7 @@
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" ht="17">
-      <c r="A18" s="38"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="17">
-      <c r="A19" s="38"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" ht="34">
-      <c r="A20" s="38"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="10" t="s">
         <v>24</v>
       </c>
@@ -1141,24 +1141,24 @@
       <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="38"/>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="38"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
@@ -1170,26 +1170,26 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="17">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="35"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="34"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -1209,46 +1209,46 @@
       <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" ht="17">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="17">
-      <c r="A28" s="38"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="17">
-      <c r="A29" s="38"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" ht="18">
-      <c r="A30" s="38"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="20" t="s">
         <v>37</v>
       </c>
@@ -1269,6 +1269,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E27:G27"/>
@@ -1285,16 +1295,6 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
